--- a/data/trans_camb/P1428-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1428-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.652387893292829</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.6345568461413743</v>
+        <v>-0.6345568461413736</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-4.504341640457476</v>
@@ -655,7 +655,7 @@
         <v>-4.501854517021188</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-1.693274966424019</v>
+        <v>-1.69327496642402</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-2.276494927517283</v>
@@ -664,7 +664,7 @@
         <v>-3.212622057156636</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.7537746611449548</v>
+        <v>-0.7537746611449556</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.554379736747741</v>
+        <v>-3.695669919807597</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.389358125556828</v>
+        <v>-5.085804131681766</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.309342334107248</v>
+        <v>-3.229888422177351</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.962043675610721</v>
+        <v>-8.758511471253783</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.885947494617701</v>
+        <v>-8.868101027485173</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.925841260224202</v>
+        <v>-5.70254976445414</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.929351593254514</v>
+        <v>-4.755920219482347</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.5865259018168</v>
+        <v>-5.472813422508248</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.893790231891094</v>
+        <v>-3.161343936280414</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.172844215049061</v>
+        <v>1.831531913129663</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.5092208554755592</v>
+        <v>-0.285831685432352</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.617341229365046</v>
+        <v>1.942290031496984</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.650634380517717</v>
+        <v>-0.2914561868981206</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.5938202344110965</v>
+        <v>-0.6034542809135768</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.1138995170486</v>
+        <v>1.939929951343493</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.06059664696830808</v>
+        <v>0.03170974895892262</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.222602218043145</v>
+        <v>-1.059592552138096</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.477482660262226</v>
+        <v>1.457634433474609</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.5723789757143183</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1369358526124178</v>
+        <v>-0.1369358526124176</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.4713836921348002</v>
@@ -760,7 +760,7 @@
         <v>-0.47112341227111</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.177202856529177</v>
+        <v>-0.1772028565291771</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.3466084972877982</v>
@@ -769,7 +769,7 @@
         <v>-0.489138846796856</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1147662133725921</v>
+        <v>-0.1147662133725922</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6077244153806997</v>
+        <v>-0.6379472785251141</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.859803984502222</v>
+        <v>-0.8262558605483175</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5145753755081671</v>
+        <v>-0.5291621644626566</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7316653658395192</v>
+        <v>-0.7259973831846241</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7281493149102012</v>
+        <v>-0.7234907940226301</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4886423794745718</v>
+        <v>-0.4531726931156604</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.613691059409013</v>
+        <v>-0.6097040875163121</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.701754623599782</v>
+        <v>-0.7036649111475988</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3606799499055879</v>
+        <v>-0.3783201495402381</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7269977741846663</v>
+        <v>0.5978795290678702</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.06188471478794599</v>
+        <v>0.006659067943849959</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4799699980753713</v>
+        <v>0.6171329320040283</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.05282558847647188</v>
+        <v>0.006882616999441191</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.03101892977083923</v>
+        <v>-0.05496989826474393</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2976055530179967</v>
+        <v>0.307821854165321</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01491795049419251</v>
+        <v>0.01426420393637575</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1978226973739685</v>
+        <v>-0.1707988553867492</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3133302476688914</v>
+        <v>0.2864939682629883</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.021808508364613</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1471612185830341</v>
+        <v>0.1471612185830334</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-1.555070532372289</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.959193916219445</v>
+        <v>-2.955924196128381</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.96111544240753</v>
+        <v>-3.981256565313295</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.827557400216705</v>
+        <v>-2.752570435313368</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.077578091391112</v>
+        <v>-5.208096038419932</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.50983846150422</v>
+        <v>-5.789350449381861</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2838200906086026</v>
+        <v>0.4987631026621597</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.141438438029288</v>
+        <v>-2.88186904596145</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.976469750266254</v>
+        <v>-3.907526024516193</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.1055627533799644</v>
+        <v>-0.1736011004287977</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.22363076294096</v>
+        <v>3.002811199016497</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.954053551356286</v>
+        <v>1.847067231667963</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.900252270884579</v>
+        <v>2.908743931186403</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.870800207269598</v>
+        <v>2.006704501219799</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.015545471234647</v>
+        <v>0.7827682519766616</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.38882268931389</v>
+        <v>7.462192596943994</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.484362664481399</v>
+        <v>1.323029375553685</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5666814587915706</v>
+        <v>0.4981011094424998</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.190859585515744</v>
+        <v>4.068675155632889</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.2540064597940548</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.0365820991362476</v>
+        <v>0.03658209913624742</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2558486267870964</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5643228035243547</v>
+        <v>-0.5411351812781495</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.705081574136447</v>
+        <v>-0.6943996171231033</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4725759095894763</v>
+        <v>-0.4802236461565042</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6460893754215363</v>
+        <v>-0.6530855228942007</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7051645390584879</v>
+        <v>-0.7300597579198161</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02894333932754506</v>
+        <v>0.05751545524001068</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4986482558103662</v>
+        <v>-0.4697215115745978</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6233351692600896</v>
+        <v>-0.6239165140384884</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.05910151075073442</v>
+        <v>-0.03898651193783251</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.478385203717719</v>
+        <v>1.27256530389582</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8679633682332818</v>
+        <v>0.8639744885564545</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.220118324182056</v>
+        <v>1.192753810359125</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4691080997487715</v>
+        <v>0.4935070289520473</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3276027523348842</v>
+        <v>0.2214836362800556</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.751273688248304</v>
+        <v>1.803528921639505</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3886033717358282</v>
+        <v>0.3552369870858972</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1590150650138693</v>
+        <v>0.1348023813448216</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.127111972137399</v>
+        <v>1.084255991836657</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-3.545414030386273</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.059410049185634</v>
+        <v>-1.059410049185633</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-4.769952378975983</v>
@@ -1092,7 +1092,7 @@
         <v>-3.942535580107182</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.186431293584442</v>
+        <v>-1.18643129358444</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.735119252048577</v>
+        <v>-2.613568368593578</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.347676284299617</v>
+        <v>-6.336854065911866</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.948718282601023</v>
+        <v>-3.767507813248346</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-12.45593389128555</v>
+        <v>-12.66208858843743</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-13.91638749698524</v>
+        <v>-13.75468133026097</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-12.00029061084179</v>
+        <v>-11.7145823189625</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.247830246893347</v>
+        <v>-3.573024139774046</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.923128833594602</v>
+        <v>-6.809694771066373</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.235985075059073</v>
+        <v>-4.2640465022763</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.372217064183434</v>
+        <v>3.538837479657792</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.9321180395888728</v>
+        <v>-0.748148127804758</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.812704835551431</v>
+        <v>2.008906363033207</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.435546890824961</v>
+        <v>2.643783193556764</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.405439660257148</v>
+        <v>3.554593241966413</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.659223356562778</v>
+        <v>3.654559395837594</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.024428362832343</v>
+        <v>2.674050457214503</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.226539979684703</v>
+        <v>-1.078539217149363</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.798395814142591</v>
+        <v>2.016549445693647</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.5198808957090268</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1553463264299672</v>
+        <v>-0.155346326429967</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2442321984302953</v>
@@ -1197,7 +1197,7 @@
         <v>-0.4013719517869957</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1207852749306606</v>
+        <v>-0.1207852749306605</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3395275782217809</v>
+        <v>-0.3048539908838011</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7381473206324778</v>
+        <v>-0.7495748183036077</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4793668940388354</v>
+        <v>-0.4491898785813366</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5175130359986103</v>
+        <v>-0.5299101659005349</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5977713167231902</v>
+        <v>-0.586023429401925</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4922623321519872</v>
+        <v>-0.4743452306668272</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2793411133262613</v>
+        <v>-0.3127576478577568</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5974568652241433</v>
+        <v>-0.6048687559215508</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3692758305080553</v>
+        <v>-0.3708190190784311</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6525358156037486</v>
+        <v>0.6823110900928958</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1134057798369672</v>
+        <v>-0.1153375450220492</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3683085918473559</v>
+        <v>0.4123615803516653</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2590660106865928</v>
+        <v>0.1729345766003182</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2471263455819999</v>
+        <v>0.2223970887678569</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2558479871433131</v>
+        <v>0.2589924122496666</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3859759224188771</v>
+        <v>0.3322770626755386</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1309889991214827</v>
+        <v>-0.1019105875560155</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2351039543601458</v>
+        <v>0.2480930613686368</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-5.753188281966068</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-3.916498334590213</v>
+        <v>-3.916498334590214</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-8.141241496281518</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.152319138120859</v>
+        <v>-6.983795634817431</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.90342669039901</v>
+        <v>-7.984198899976011</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.169217400334315</v>
+        <v>-6.02923500865427</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-11.41880410929669</v>
+        <v>-11.59758196075029</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-11.502414378372</v>
+        <v>-11.43034364907729</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.833880311006493</v>
+        <v>-5.876435480956079</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-7.85407206759301</v>
+        <v>-7.96080526291898</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.322057016529254</v>
+        <v>-8.544715493361453</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.10497324839091</v>
+        <v>-5.002687828148734</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-2.711130059133712</v>
+        <v>-2.57600672658656</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.564252164756772</v>
+        <v>-3.652593467450777</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.637268988146186</v>
+        <v>-1.810925606300884</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-5.310352805578562</v>
+        <v>-5.35359952987497</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-5.703463893396692</v>
+        <v>-5.608806747564332</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.009549784590330266</v>
+        <v>0.08528836225917424</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-4.265612418759191</v>
+        <v>-4.380496211803535</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-4.97057127647593</v>
+        <v>-5.106472688780368</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.488313232801467</v>
+        <v>-1.428452624625299</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.544092317903096</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3703923029271323</v>
+        <v>-0.3703923029271325</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.5874472088811086</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6055575664699011</v>
+        <v>-0.6009493015406159</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6689809513859049</v>
+        <v>-0.6646439742279756</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5196534303422302</v>
+        <v>-0.5075756935599988</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7113480270762482</v>
+        <v>-0.7170805925638387</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7299473870777327</v>
+        <v>-0.7255624129362445</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3771464427251897</v>
+        <v>-0.3804375398875749</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.621550855103273</v>
+        <v>-0.618008813170199</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.660545515633657</v>
+        <v>-0.6588698366448931</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.393333659885883</v>
+        <v>-0.3870201312987264</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2715622285557669</v>
+        <v>-0.2667028894375077</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3734349434449016</v>
+        <v>-0.3650696619328878</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1692922452747409</v>
+        <v>-0.1887894248437734</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.4008650713431972</v>
+        <v>-0.4221684664310537</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.454007257137448</v>
+        <v>-0.4445503222392687</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.00203962726502144</v>
+        <v>0.007017539890449754</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.3969265402883742</v>
+        <v>-0.3921311077907744</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.451938864099523</v>
+        <v>-0.4658731700988117</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1463441074943551</v>
+        <v>-0.1317383693106104</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-5.518332383058705</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.9126860125051262</v>
+        <v>0.9126860125051234</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-3.276411946222921</v>
@@ -1520,7 +1520,7 @@
         <v>-5.34445616660196</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.5871818063055673</v>
+        <v>-0.58718180630557</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.399504279520627</v>
+        <v>-6.4816399771881</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.79829462134196</v>
+        <v>-6.987147218973938</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.512092236427994</v>
+        <v>-5.815898024506393</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.655942706093981</v>
+        <v>-7.124434331750702</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.718498555456014</v>
+        <v>-9.597507190743244</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.156628228458228</v>
+        <v>-3.015485676548622</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-6.260409060955677</v>
+        <v>-6.405632974948329</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.986886039968252</v>
+        <v>-8.051221338543693</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.546749740683601</v>
+        <v>-3.277037228980025</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6563386030924796</v>
+        <v>0.5819888469565393</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.582378529752637</v>
+        <v>-0.3734318414616077</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.25519457093328</v>
+        <v>1.154918767366889</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.909701608565599</v>
+        <v>1.30505243062441</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.743046873322988</v>
+        <v>-1.404568613349401</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.498614187803807</v>
+        <v>4.447265966609979</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.3613680703405494</v>
+        <v>-0.3696439002566914</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.525940057590407</v>
+        <v>-2.484648639076936</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.129994912000368</v>
+        <v>2.170400805958903</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.3091720687504261</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05113447378995715</v>
+        <v>0.051134473789957</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2303775549076147</v>
@@ -1625,7 +1625,7 @@
         <v>-0.3757899690825115</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.04128708814496229</v>
+        <v>-0.04128708814496249</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6144669860566835</v>
+        <v>-0.6172780292113702</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6368525149007244</v>
+        <v>-0.6608383509134971</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5175372796987787</v>
+        <v>-0.5508701003744955</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3799553079338436</v>
+        <v>-0.3528670299998751</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4757367715322139</v>
+        <v>-0.4795422495314673</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1498032059820515</v>
+        <v>-0.1431162840393218</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3859309713926692</v>
+        <v>-0.3987107942308423</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5011631270286525</v>
+        <v>-0.5121631229347051</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2165462887616743</v>
+        <v>-0.206388745876506</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1528972270897775</v>
+        <v>0.1104781963900942</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.05620154482203497</v>
+        <v>-0.04516386343698491</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2270834652430525</v>
+        <v>0.1783923262665713</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.0575121684252442</v>
+        <v>0.08757638243375965</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1087974528958609</v>
+        <v>-0.09829986173792635</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2876826670640411</v>
+        <v>0.285187119390624</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.02559317270401447</v>
+        <v>-0.04124402618246373</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2011905869388374</v>
+        <v>-0.2027721597683682</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1725352222311372</v>
+        <v>0.1749992847001398</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-12.02948591819092</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-5.671832515304404</v>
+        <v>-5.671832515304401</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-4.334084860380361</v>
@@ -1734,7 +1734,7 @@
         <v>-10.10296757006364</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-5.178305711073556</v>
+        <v>-5.178305711073558</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.9346662252987704</v>
+        <v>-1.078138533557153</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.378502153397205</v>
+        <v>-2.685786408777595</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.118288986899851</v>
+        <v>-2.068711206784966</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-8.947016353505209</v>
+        <v>-8.789038675940839</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-15.12781783208732</v>
+        <v>-15.43833456739284</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-8.680722191861427</v>
+        <v>-8.782728174447971</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-7.374232683984778</v>
+        <v>-7.009863993505849</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-12.90130920886404</v>
+        <v>-12.71779869509186</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-8.031081456366147</v>
+        <v>-7.950376655167275</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.324879459410342</v>
+        <v>3.178112530202531</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-0.2611906856466475</v>
+        <v>-0.2606056575059902</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.4400027360353045</v>
+        <v>0.4872639988832368</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-1.994252752561277</v>
+        <v>-2.261898025436959</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-8.806725561860246</v>
+        <v>-8.785273447945656</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-2.372011032286923</v>
+        <v>-2.601953481086107</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-1.729759803303788</v>
+        <v>-1.24839356417544</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-7.615717659107685</v>
+        <v>-7.561522251566608</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-2.575581377813954</v>
+        <v>-2.324932797980359</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.4824434694790372</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.2274692846890153</v>
+        <v>-0.2274692846890152</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.2134857920498449</v>
@@ -1839,7 +1839,7 @@
         <v>-0.4976460090722931</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.2550699240595291</v>
+        <v>-0.2550699240595292</v>
       </c>
     </row>
     <row r="38">
@@ -1853,22 +1853,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.3364396813983002</v>
+        <v>-0.3328160743003056</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5712945313344461</v>
+        <v>-0.5777150516432441</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3285169144728307</v>
+        <v>-0.3341642574128073</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.341630370538373</v>
+        <v>-0.3227759015099518</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.597510139115572</v>
+        <v>-0.5885662648067481</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3723195496510857</v>
+        <v>-0.3662106259889534</v>
       </c>
     </row>
     <row r="39">
@@ -1882,22 +1882,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>-0.08515264938024721</v>
+        <v>-0.09647656850881031</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.3726996407543879</v>
+        <v>-0.3758568961779768</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.1051830962472416</v>
+        <v>-0.1094654543637797</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.09156342765654968</v>
+        <v>-0.06461733637345569</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.394372699371016</v>
+        <v>-0.3959323999672034</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.1364972214683553</v>
+        <v>-0.1262368686000495</v>
       </c>
     </row>
     <row r="40">
@@ -1947,31 +1947,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.184169916529731</v>
+        <v>-3.2463039654542</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.79569514969839</v>
+        <v>-4.761235853850337</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.119657465425156</v>
+        <v>-3.229241509133947</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-7.072366819051439</v>
+        <v>-6.951749250490555</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-10.06153861476981</v>
+        <v>-9.897620843197814</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.849798508314262</v>
+        <v>-4.959816314675529</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-4.813599432468974</v>
+        <v>-4.74962086511266</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-7.007150851726875</v>
+        <v>-7.022553278529964</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-3.496636616643852</v>
+        <v>-3.535909579089799</v>
       </c>
     </row>
     <row r="42">
@@ -1982,31 +1982,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.8644951682707371</v>
+        <v>-0.9249356370832182</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-2.613996856970172</v>
+        <v>-2.53433826415533</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.8813757157244864</v>
+        <v>-0.8295844366443083</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-3.469624288780765</v>
+        <v>-3.485243971191434</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-6.651530485370347</v>
+        <v>-6.706691108026009</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-1.671907859346481</v>
+        <v>-1.746340599057081</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-2.677514563266918</v>
+        <v>-2.577444768473217</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-4.996736235715274</v>
+        <v>-5.075638991232774</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-1.61844529386167</v>
+        <v>-1.618991313148216</v>
       </c>
     </row>
     <row r="43">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4057421455438727</v>
+        <v>-0.4035574369312535</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5919933278395556</v>
+        <v>-0.5983283879302383</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3913864493880825</v>
+        <v>-0.402775834631168</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3811353141005278</v>
+        <v>-0.3748951975371478</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5380042371234681</v>
+        <v>-0.5353936678923469</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2563762748195088</v>
+        <v>-0.2621393456630077</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3652693624444366</v>
+        <v>-0.36317915008142</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.5382876446243526</v>
+        <v>-0.534876255739835</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.266173626438548</v>
+        <v>-0.268373104626309</v>
       </c>
     </row>
     <row r="45">
@@ -2087,31 +2087,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1270372392497868</v>
+        <v>-0.1373654793076017</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.3827766131898646</v>
+        <v>-0.3789056895204626</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1286460782766099</v>
+        <v>-0.131730088937262</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.2087469339102266</v>
+        <v>-0.2089173596977787</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.3983922506879728</v>
+        <v>-0.394432841139172</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.09901361860218723</v>
+        <v>-0.1010281543581837</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.2225759970905592</v>
+        <v>-0.2142326434328484</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.4174494745406431</v>
+        <v>-0.4219023420458534</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.1319898919446913</v>
+        <v>-0.1372539287568262</v>
       </c>
     </row>
     <row r="46">
